--- a/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
+++ b/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
@@ -1698,7 +1698,7 @@
         <v>108.78</v>
       </c>
       <c r="F29">
-        <v>129.53</v>
+        <v>129.54</v>
       </c>
       <c r="G29">
         <v>92.22</v>
@@ -1707,7 +1707,7 @@
         <v>164.82</v>
       </c>
       <c r="I29">
-        <v>158.4</v>
+        <v>158.43</v>
       </c>
       <c r="J29">
         <v>103.86</v>
@@ -1716,28 +1716,28 @@
         <v>95.27</v>
       </c>
       <c r="L29">
-        <v>66.55</v>
+        <v>66.67</v>
       </c>
       <c r="M29">
         <v>111.89</v>
       </c>
       <c r="N29">
-        <v>96.58</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O29">
         <v>102.26</v>
       </c>
       <c r="P29">
-        <v>108.44</v>
+        <v>108.4</v>
       </c>
       <c r="Q29">
         <v>115.85</v>
       </c>
       <c r="R29">
-        <v>103.3</v>
+        <v>103.29</v>
       </c>
       <c r="S29">
-        <v>86.18000000000001</v>
+        <v>86.13</v>
       </c>
     </row>
   </sheetData>
